--- a/db/new sql/new sql Comparison.xlsx
+++ b/db/new sql/new sql Comparison.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84">
   <si>
     <t>NewSQL</t>
   </si>
@@ -215,6 +215,10 @@
     <t>依靠 Raft 实现高可用，
 数据库面临的常见问题是备份失败和意外停机。 YugabyteDB 持续可用，这可以通过跨节点的分布式备份和偶尔的数据同步活动来实现。维护操作也可以在不停机的情况下进行，这也是一个显着的特点。多区域部署和复制也确保了可用性。
 YugabyteDB的高可用性是通过分布式架构、数据复制、共识算法、自动重新平衡和故障检测机制的组合来实现的，确保数据库在故障域故障时保持可用、一致和弹性。</t>
+  </si>
+  <si>
+    <t>SingleStore 默认情况下是高可用的。它通过将数据冗余存储在一组节点（称为可用性组）中来确保高可用性。SingleStore 支持两个可用性组。每个可用性组都包含系统中每个分区的副本 - 一些作为主分区，一些作为副本。因此，SingleStore 在系统中拥有您的数据的两个副本，以保护数据免受单节点故障的影响。
+doc: https://docs.singlestore.com/cloud/getting-started-with-singlestore-helios/about-singlestore-helios/high-availability/</t>
   </si>
   <si>
     <t>High Reliability</t>
@@ -1316,8 +1320,8 @@
   <sheetPr/>
   <dimension ref="A1:XFD29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="117" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="117" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1327,7 +1331,7 @@
     <col min="3" max="3" width="27.9453125" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="9" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="36.390625" customWidth="1"/>
-    <col min="6" max="6" width="29.2578125" customWidth="1"/>
+    <col min="6" max="6" width="71.328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1518,44 +1522,47 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" ht="101" spans="1:2">
+    <row r="14" s="1" customFormat="1" ht="222" spans="1:6">
       <c r="A14" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>51</v>
       </c>
+      <c r="F14" s="4" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="17" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="118" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" ht="68" spans="1:16384">
       <c r="A18" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -17942,93 +17949,93 @@
     </row>
     <row r="19" ht="84" spans="1:2">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" ht="42" spans="1:2">
       <c r="A21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" ht="17" spans="1:6">
       <c r="A22" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" ht="194" spans="1:2">
       <c r="A24" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" ht="17" spans="1:2">
       <c r="A25" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" ht="18" spans="1:2">
       <c r="A26" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" ht="90" spans="1:6">
       <c r="A27" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" ht="17" spans="1:2">
       <c r="A28" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" ht="118" spans="1:2">
       <c r="A29" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/db/new sql/new sql Comparison.xlsx
+++ b/db/new sql/new sql Comparison.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15160"/>
+    <workbookView windowWidth="28060" windowHeight="11560"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88">
   <si>
     <t>NewSQL</t>
   </si>
@@ -268,7 +268,10 @@
 repo: https://github.com/yugabyte/yugabyte-db</t>
   </si>
   <si>
-    <t>工作负载</t>
+    <t>commercial, free developer edition available</t>
+  </si>
+  <si>
+    <t>处理数据的方式</t>
   </si>
   <si>
     <t>支持OLTP、HTAP，不支持OLAP</t>
@@ -307,6 +310,9 @@
     <t>一个表被分割成一个或多个碎片，一个碎片在YugabyteDB中被称为一个tablet。</t>
   </si>
   <si>
+    <t>分布式云原生架构</t>
+  </si>
+  <si>
     <t>数据库模型</t>
   </si>
   <si>
@@ -342,6 +348,13 @@
 抵御故障：在基础设施故障期间以及执行软件升级和分布式备份等维护任务时实现持续可用性
 地理分布式：使用复制和数据地理分区功能来实现应用程序所需的延迟、弹性和合规性
 混合云和多云：在公共云、私有云和混合云环境中、虚拟机、容器或裸机上部署 YugabyteDB</t>
+  </si>
+  <si>
+    <t>适用场景</t>
+  </si>
+  <si>
+    <t>SingleStore的分析能力、分布式查询处理、流数据摄取、流数据摄取的功能，适用于数据仓库。
+对于实时分析应用程序，SingleStore 是首选。</t>
   </si>
 </sst>
 </file>
@@ -1318,10 +1331,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:XFD29"/>
+  <dimension ref="A1:XFD30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="117" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1330,8 +1343,8 @@
     <col min="2" max="2" width="83.2421875" style="2" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="27.9453125" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="9" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="36.390625" customWidth="1"/>
-    <col min="6" max="6" width="71.328125" customWidth="1"/>
+    <col min="5" max="5" width="36.390625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="76.3359375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -17960,82 +17973,96 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" ht="42" spans="1:2">
+    <row r="21" ht="42" spans="1:6">
       <c r="A21" t="s">
         <v>64</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>65</v>
       </c>
+      <c r="F21" s="8" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="22" ht="17" spans="1:6">
       <c r="A22" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" ht="194" spans="1:2">
       <c r="A24" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" ht="17" spans="1:2">
       <c r="A25" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="26" ht="18" spans="1:2">
+    <row r="26" ht="18" spans="1:6">
       <c r="A26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="F26" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="27" ht="90" spans="1:6">
       <c r="A27" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" ht="17" spans="1:2">
       <c r="A28" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" ht="118" spans="1:2">
       <c r="A29" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" ht="34" spans="1:6">
+      <c r="A30" t="s">
+        <v>86</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/db/new sql/new sql Comparison.xlsx
+++ b/db/new sql/new sql Comparison.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89">
   <si>
     <t>NewSQL</t>
   </si>
@@ -22,16 +22,16 @@
     <t>YugabyteDB</t>
   </si>
   <si>
+    <t>Couchbase</t>
+  </si>
+  <si>
+    <t>SingleStore</t>
+  </si>
+  <si>
     <t>MySQL Cluster</t>
   </si>
   <si>
     <t>VoltDB</t>
-  </si>
-  <si>
-    <t>Couchbase</t>
-  </si>
-  <si>
-    <t>SingleStore</t>
   </si>
   <si>
     <t>Website</t>
@@ -268,6 +268,9 @@
 repo: https://github.com/yugabyte/yugabyte-db</t>
   </si>
   <si>
+    <t>Open Source , Business Source License (BSL 1.1); Commercial licenses also available</t>
+  </si>
+  <si>
     <t>commercial, free developer edition available</t>
   </si>
   <si>
@@ -362,9 +365,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
@@ -398,16 +401,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -415,6 +442,28 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -429,6 +478,43 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -445,90 +531,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -543,7 +546,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -555,31 +630,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -591,109 +642,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -711,7 +666,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -723,7 +696,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -734,6 +737,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -776,30 +794,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -817,6 +811,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -826,11 +831,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -839,145 +842,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -997,19 +1000,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1331,20 +1334,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:XFD30"/>
+  <dimension ref="A1:XFB30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="36.2734375" customWidth="1"/>
-    <col min="2" max="2" width="83.2421875" style="2" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="27.9453125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="9" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="36.390625" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="76.3359375" customWidth="1"/>
+    <col min="2" max="2" width="83.2421875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="36.390625" customWidth="1"/>
+    <col min="4" max="4" width="76.3359375" customWidth="1"/>
+    <col min="5" max="5" width="27.9453125" customWidth="1"/>
+    <col min="6" max="16382" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1367,182 +1370,182 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" ht="34" spans="1:6">
+    <row r="3" ht="34" spans="1:4">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="D4" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E5" t="s">
+      <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="F5" t="s">
+      <c r="D5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E6" t="s">
+      <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="D6" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" ht="31" spans="1:6">
+    <row r="7" ht="17" spans="1:4">
       <c r="A7" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E7" t="s">
+      <c r="C7" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="D7" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" ht="98" spans="1:6">
+    <row r="8" ht="98" spans="1:4">
       <c r="A8" t="s">
         <v>27</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="C8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="D8" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" ht="154" spans="1:6">
+    <row r="9" ht="154" spans="1:4">
       <c r="A9" t="s">
         <v>31</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="C9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="D9" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" ht="17" spans="1:6">
+    <row r="10" ht="17" spans="1:4">
       <c r="A10" t="s">
         <v>35</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E10" t="s">
+      <c r="C10" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="D10" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" ht="28" spans="1:6">
+    <row r="11" ht="28" spans="1:4">
       <c r="A11" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="C11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F11" t="s">
+      <c r="D11" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" ht="51" spans="1:6">
+    <row r="12" ht="51" spans="1:4">
       <c r="A12" t="s">
         <v>43</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E12" t="s">
+      <c r="C12" t="s">
         <v>45</v>
       </c>
-      <c r="F12" t="s">
+      <c r="D12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" ht="84" spans="1:6">
+    <row r="13" ht="84" spans="1:4">
       <c r="A13" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="C13" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F13" t="s">
+      <c r="D13" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" ht="222" spans="1:6">
+    <row r="14" s="1" customFormat="1" ht="101" spans="1:4">
       <c r="A14" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="D14" s="5" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1550,7 +1553,7 @@
       <c r="A15" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="5" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1558,7 +1561,7 @@
       <c r="A16" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1566,15 +1569,15 @@
       <c r="A17" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="18" ht="68" spans="1:16384">
+    <row r="18" ht="68" spans="1:16382">
       <c r="A18" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="5" t="s">
         <v>60</v>
       </c>
       <c r="C18" s="1"/>
@@ -17957,8 +17960,6 @@
       <c r="XEZ18" s="1"/>
       <c r="XFA18" s="1"/>
       <c r="XFB18" s="1"/>
-      <c r="XFC18" s="1"/>
-      <c r="XFD18" s="1"/>
     </row>
     <row r="19" ht="84" spans="1:2">
       <c r="A19" t="s">
@@ -17973,106 +17974,109 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" ht="42" spans="1:6">
+    <row r="21" ht="42" spans="1:4">
       <c r="A21" t="s">
         <v>64</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="C21" s="6" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="22" ht="17" spans="1:6">
-      <c r="A22" s="5" t="s">
+      <c r="D21" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="2" t="s">
+    </row>
+    <row r="22" ht="17" spans="1:4">
+      <c r="A22" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F22" t="s">
+      <c r="B22" s="2" t="s">
         <v>69</v>
+      </c>
+      <c r="D22" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" ht="194" spans="1:2">
       <c r="A24" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" ht="17" spans="1:2">
       <c r="A25" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
-    <row r="26" ht="18" spans="1:6">
+    <row r="26" ht="18" spans="1:4">
       <c r="A26" t="s">
-        <v>75</v>
-      </c>
-      <c r="B26" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="F26" t="s">
+      <c r="B26" s="8" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="27" ht="90" spans="1:6">
-      <c r="A27" t="s">
+      <c r="D26" t="s">
         <v>78</v>
       </c>
-      <c r="B27" s="2" t="s">
+    </row>
+    <row r="27" ht="87" spans="1:4">
+      <c r="A27" t="s">
         <v>79</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="B27" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="C27" s="2" t="s">
         <v>81</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="28" ht="17" spans="1:2">
       <c r="A28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" ht="118" spans="1:2">
       <c r="A29" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
-    <row r="30" ht="34" spans="1:6">
+    <row r="30" ht="34" spans="1:4">
       <c r="A30" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
-      <c r="F30" s="8" t="s">
-        <v>87</v>
+      <c r="D30" s="2" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="www.yugabyte.com"/>
-    <hyperlink ref="E2" r:id="rId2" display="https://www.couchbase.com/"/>
-    <hyperlink ref="E3" r:id="rId3" display="https://docs.couchbase.com/home/index.html"/>
-    <hyperlink ref="F3" r:id="rId4" display="https://docs.singlestore.com/"/>
-    <hyperlink ref="F2" r:id="rId5" display="https://www.singlestore.com/"/>
-    <hyperlink ref="F4" r:id="rId6" display="https://www.singlestore.com/product-overview/"/>
+    <hyperlink ref="C2" r:id="rId2" display="https://www.couchbase.com/"/>
+    <hyperlink ref="C3" r:id="rId3" display="https://docs.couchbase.com/home/index.html"/>
+    <hyperlink ref="D3" r:id="rId4" display="https://docs.singlestore.com/"/>
+    <hyperlink ref="D2" r:id="rId5" display="https://www.singlestore.com/"/>
+    <hyperlink ref="D4" r:id="rId6" display="https://www.singlestore.com/product-overview/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/db/new sql/new sql Comparison.xlsx
+++ b/db/new sql/new sql Comparison.xlsx
@@ -95,7 +95,12 @@
     <t>SQL++, extends ANSI SQL to JSON for operational, transactional, and analytic use cases</t>
   </si>
   <si>
-    <t>yes，but no triggers and foreign keys</t>
+    <t>yes，but no triggers and foreign keys，
+SingleStore是一个与 ODBC 兼容的数据库。它与 MySQL 兼容，因此使用 MySQL 驱动程序的应用程序可以透明地连接和使用SingleStore 。
+SingleStore还支持高级功能，例如分布式架构、通过编译查询实现的高性能、列存储、可扩展性、地理空间、JSON、窗口函数、管道、全文搜索、时间序列扩展、近似快速聚合函数以及S3、Azure Blob Store，和GCS集成。
+SingleStore还与流处理框架Apache Spark很好地集成，以提供创建和管理实时数据管道的简单方法。
+https://docs.singlestore.com/db/v8.5/introduction/how-singlestore-works/highly-compatible/
+https://docs.singlestore.com/db/v8.5/introduction/unsupported-mysql-features/</t>
   </si>
   <si>
     <t>APIs and other access methods</t>
@@ -365,10 +370,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -382,6 +387,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -401,19 +414,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -425,7 +436,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -440,10 +459,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -462,21 +505,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -486,15 +514,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -514,28 +541,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -546,13 +551,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,13 +611,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -588,145 +731,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -737,6 +742,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -759,7 +788,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -775,21 +804,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -811,17 +825,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -831,9 +834,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -842,152 +847,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -997,22 +1002,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="43" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1336,16 +1344,16 @@
   <sheetPr/>
   <dimension ref="A1:XFB30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="36.2734375" customWidth="1"/>
-    <col min="2" max="2" width="83.2421875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="36.390625" customWidth="1"/>
-    <col min="4" max="4" width="76.3359375" customWidth="1"/>
+    <col min="2" max="2" width="68.03125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="65.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="76.3359375" style="3" customWidth="1"/>
     <col min="5" max="5" width="27.9453125" customWidth="1"/>
     <col min="6" max="16382" width="9" customWidth="1"/>
   </cols>
@@ -1357,10 +1365,10 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -1374,13 +1382,13 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1391,10 +1399,10 @@
       <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1402,13 +1410,13 @@
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1419,10 +1427,10 @@
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1433,21 +1441,21 @@
       <c r="B6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" ht="17" spans="1:4">
+    <row r="7" ht="177" spans="1:4">
       <c r="A7" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -1489,14 +1497,14 @@
       <c r="B10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" ht="28" spans="1:4">
+    <row r="11" ht="31" spans="1:4">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -1506,7 +1514,7 @@
       <c r="C11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="3" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1517,10 +1525,10 @@
       <c r="B12" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="3" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1534,7 +1542,7 @@
       <c r="C13" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="3" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1542,46 +1550,53 @@
       <c r="A14" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="C14" s="7"/>
+      <c r="D14" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" ht="17" spans="1:2">
+    <row r="15" s="1" customFormat="1" ht="17" spans="1:4">
       <c r="A15" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="7" t="s">
         <v>54</v>
       </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
     </row>
-    <row r="16" s="1" customFormat="1" ht="118" spans="1:2">
+    <row r="16" s="1" customFormat="1" ht="118" spans="1:4">
       <c r="A16" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="7" t="s">
         <v>56</v>
       </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
     </row>
-    <row r="17" s="1" customFormat="1" ht="17" spans="1:2">
+    <row r="17" s="1" customFormat="1" ht="17" spans="1:4">
       <c r="A17" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="7" t="s">
         <v>58</v>
       </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
     </row>
     <row r="18" ht="68" spans="1:16382">
       <c r="A18" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -17981,7 +17996,7 @@
       <c r="B21" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="2" t="s">
         <v>66</v>
       </c>
       <c r="D21" s="2" t="s">
@@ -17989,13 +18004,13 @@
       </c>
     </row>
     <row r="22" ht="17" spans="1:4">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="8" t="s">
         <v>68</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="3" t="s">
         <v>70</v>
       </c>
     </row>
@@ -18004,7 +18019,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" ht="194" spans="1:2">
+    <row r="24" ht="244" customHeight="1" spans="1:2">
       <c r="A24" t="s">
         <v>72</v>
       </c>
@@ -18024,10 +18039,10 @@
       <c r="A26" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="3" t="s">
         <v>78</v>
       </c>
     </row>
